--- a/Week-2/String_Manupulation_Activity/Hero.xlsx
+++ b/Week-2/String_Manupulation_Activity/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Revature\Irving-Gonzalez-Code\Week-2\String_Manupulation_Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F946-7990-43C5-9C74-A5FAA5968CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB92DA-5E89-443D-A3AA-8E61E971D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="17655" yWindow="5880" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="19920" yWindow="5595" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F7" sqref="F7 A2:F7"/>
+      <x:selection activeCell="E19" sqref="E19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,7 @@
     <x:col min="2" max="2" width="13.570312" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -456,7 +456,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -467,7 +467,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -478,7 +478,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -486,6 +486,39 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
